--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc1dfb5cace04768/Documents/SIT/INF2008/INF2008_YelpZip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{C1BDD932-E9D8-4EE2-A24B-9B79FCB516DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFFE6648-D5FA-477F-82A8-0190EAF80EDA}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{C1BDD932-E9D8-4EE2-A24B-9B79FCB516DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F0A227-4D20-4202-B4BA-DA352F680E40}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{523C0EBC-3B2C-48ED-B2D8-8FB42A6877EA}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{523C0EBC-3B2C-48ED-B2D8-8FB42A6877EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>Accuracy</t>
   </si>
@@ -92,13 +92,19 @@
     <t>Initial Model</t>
   </si>
   <si>
-    <t>SVD + MinMaxScaler + SMOTE</t>
-  </si>
-  <si>
-    <t>SVD + MinMaxScaler + SMOTE Tomek</t>
-  </si>
-  <si>
     <t>SVD + MinMaxScaler + SMOTE 0.75</t>
+  </si>
+  <si>
+    <t>SVD + MinMaxScaler + SMOTE 0.5</t>
+  </si>
+  <si>
+    <t>SVD + MinMaxScaler + SMOTE 0.3</t>
+  </si>
+  <si>
+    <t>SVD + MinMaxScaler + SMOTE auto</t>
+  </si>
+  <si>
+    <t>Before Feature Engineering (MinMaxScaler)</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,8 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -589,7 +596,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -612,7 +619,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -635,7 +642,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -651,10 +658,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -664,10 +671,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -677,7 +684,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -688,25 +695,25 @@
         <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="4">
-        <v>0.86780000000000002</v>
+        <v>0.8679</v>
       </c>
       <c r="F8" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
+      <c r="H8" s="4">
+        <v>0.01</v>
       </c>
       <c r="I8" s="2">
-        <v>0.72019999999999995</v>
+        <v>0.71460000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -717,19 +724,19 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="4">
-        <v>0.64359999999999995</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="F9" s="5">
         <v>0.22</v>
       </c>
       <c r="G9" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.34</v>
+        <v>0.67</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.33</v>
       </c>
       <c r="I9" s="2">
-        <v>0.72019999999999995</v>
+        <v>0.71460000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,19 +747,19 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="4">
-        <v>0.69269999999999998</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="F10" s="5">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="G10" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="H10" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="H10" s="4">
         <v>0.34</v>
       </c>
       <c r="I10" s="2">
-        <v>0.71430000000000005</v>
+        <v>0.71640000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -838,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>12</v>
@@ -867,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>12</v>
@@ -896,16 +903,26 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.64270000000000005</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.622</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -915,16 +932,26 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="E17" s="8">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.62939999999999996</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -934,16 +961,26 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="E18" s="8">
+        <v>0.72250000000000003</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.72499999999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc1dfb5cace04768/Documents/SIT/INF2008/INF2008_YelpZip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{C1BDD932-E9D8-4EE2-A24B-9B79FCB516DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F0A227-4D20-4202-B4BA-DA352F680E40}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{C1BDD932-E9D8-4EE2-A24B-9B79FCB516DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC4A4E37-81C3-48D7-80EB-D6BFB2E8BC74}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{523C0EBC-3B2C-48ED-B2D8-8FB42A6877EA}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{523C0EBC-3B2C-48ED-B2D8-8FB42A6877EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>Accuracy</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Before Feature Engineering (MinMaxScaler)</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
   </si>
 </sst>
 </file>
@@ -526,11 +529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68A547D-3863-426E-8B65-5D018732EA23}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,6 +983,35 @@
       </c>
       <c r="I18" s="10">
         <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.8669</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.6583</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc1dfb5cace04768/Documents/SIT/INF2008/INF2008_YelpZip/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwei23/Documents/GitHub/INF2008_YelpZip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{C1BDD932-E9D8-4EE2-A24B-9B79FCB516DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC4A4E37-81C3-48D7-80EB-D6BFB2E8BC74}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B363331A-DF1F-8746-9FEA-A35C4954A910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{523C0EBC-3B2C-48ED-B2D8-8FB42A6877EA}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="17820" windowHeight="18800" xr2:uid="{523C0EBC-3B2C-48ED-B2D8-8FB42A6877EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t>Accuracy</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Random Forest</t>
+  </si>
+  <si>
+    <t>MinMaxScaler</t>
+  </si>
+  <si>
+    <t>MinMaxScaler + SMOTE auto</t>
+  </si>
+  <si>
+    <t>SVM (Linear)</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,6 +203,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,19 +547,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68A547D-3863-426E-8B65-5D018732EA23}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="17.7109375" customWidth="1"/>
+    <col min="1" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -570,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -599,7 +617,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -622,7 +640,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -645,7 +663,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -664,7 +682,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -677,7 +695,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -690,7 +708,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -719,7 +737,7 @@
         <v>0.71460000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -742,7 +760,7 @@
         <v>0.71460000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -765,7 +783,7 @@
         <v>0.71640000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -794,7 +812,7 @@
         <v>0.6573</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -817,7 +835,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -840,7 +858,7 @@
         <v>0.70930000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -869,7 +887,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
@@ -898,7 +916,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -927,7 +945,7 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -956,7 +974,7 @@
         <v>0.62939999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -985,7 +1003,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1013,6 +1031,110 @@
       <c r="I19" s="10">
         <v>0.6583</v>
       </c>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.74080000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0.71630000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="I23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwei23/Documents/GitHub/INF2008_YelpZip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B363331A-DF1F-8746-9FEA-A35C4954A910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F8BF9F-B2D4-9843-9689-DF9113585141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="17820" windowHeight="18800" xr2:uid="{523C0EBC-3B2C-48ED-B2D8-8FB42A6877EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17820" windowHeight="18800" xr2:uid="{523C0EBC-3B2C-48ED-B2D8-8FB42A6877EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
   <si>
     <t>Accuracy</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>SVM (Linear)</t>
+  </si>
+  <si>
+    <t>SGDClassifier (log_loss)</t>
+  </si>
+  <si>
+    <t>SVD</t>
+  </si>
+  <si>
+    <t>SVD + MinMaxScaler</t>
+  </si>
+  <si>
+    <t>SVD + MinMaxScaler + Undersampling</t>
   </si>
 </sst>
 </file>
@@ -148,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,11 +183,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,13 +227,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,11 +569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68A547D-3863-426E-8B65-5D018732EA23}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1059,7 @@
       <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1046,16 +1068,16 @@
       <c r="E20" s="8">
         <v>0.67720000000000002</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="9">
         <v>0.24</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="9">
         <v>0.68</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="9">
         <v>0.36</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="10">
         <v>0.74080000000000001</v>
       </c>
     </row>
@@ -1064,7 +1086,7 @@
       <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1082,7 +1104,7 @@
       <c r="H21" s="9">
         <v>0.34</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="10">
         <v>0.71630000000000005</v>
       </c>
     </row>
@@ -1091,10 +1113,10 @@
       <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="4">
@@ -1116,10 +1138,10 @@
       <c r="B23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="4">
@@ -1135,6 +1157,84 @@
         <v>0.34</v>
       </c>
       <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0.61909999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0.8679</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.52</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0.73219999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0.46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwei23/Documents/GitHub/INF2008_YelpZip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F8BF9F-B2D4-9843-9689-DF9113585141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B124657-1856-3342-B8B4-7A94006EB578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17820" windowHeight="18800" xr2:uid="{523C0EBC-3B2C-48ED-B2D8-8FB42A6877EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16260" windowHeight="18800" xr2:uid="{523C0EBC-3B2C-48ED-B2D8-8FB42A6877EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +147,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,12 +239,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,8 +609,8 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1055,185 +1092,189 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="8">
-        <v>0.67720000000000002</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="15">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="F20" s="16">
         <v>0.24</v>
       </c>
-      <c r="G20" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="H20" s="9">
+      <c r="G20" s="16">
+        <v>0.67</v>
+      </c>
+      <c r="H20" s="16">
         <v>0.36</v>
       </c>
-      <c r="I20" s="10">
-        <v>0.74080000000000001</v>
+      <c r="I20" s="12">
+        <v>0.74070000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="8">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="E21" s="15">
+        <v>0.76839999999999997</v>
+      </c>
+      <c r="F21" s="16">
         <v>0.27</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="16">
         <v>0.45</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="16">
         <v>0.34</v>
       </c>
-      <c r="I21" s="10">
-        <v>0.71630000000000005</v>
+      <c r="I21" s="12">
+        <v>0.71440000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="18">
         <v>0.13220000000000001</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="19">
         <v>0.13</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="19">
         <v>1</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="19">
         <v>0.23</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="17">
+        <v>0.5736</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="4">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="E23" s="18">
+        <v>0.76839999999999997</v>
+      </c>
+      <c r="F23" s="19">
         <v>0.27</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="19">
         <v>0.45</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="19">
         <v>0.34</v>
       </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
+      <c r="I23" s="17">
+        <v>0.71440000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B24" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="13">
-        <v>0.85760000000000003</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G24" s="14">
-        <v>0.06</v>
-      </c>
-      <c r="H24" s="14">
+      <c r="E24" s="24">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="H24" s="25">
         <v>0.09</v>
       </c>
-      <c r="I24" s="15">
-        <v>0.61909999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
+      <c r="I24" s="26">
+        <v>0.61919999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="13">
-        <v>0.8679</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0.52</v>
-      </c>
-      <c r="G25" s="14">
+      <c r="E25" s="24">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="25">
         <v>0.01</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="25">
         <v>0.02</v>
       </c>
-      <c r="I25" s="15">
-        <v>0.73219999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
+      <c r="I25" s="26">
+        <v>0.73319999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B26" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="24">
         <v>0.13220000000000001</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="25">
         <v>0.13</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="25">
         <v>1</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="25">
         <v>0.23</v>
       </c>
-      <c r="I26" s="15">
-        <v>0.46</v>
+      <c r="I26" s="26">
+        <v>0.46079999999999999</v>
       </c>
     </row>
   </sheetData>
